--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B0568C-3A71-4B8C-AE0C-6C25FBA8BB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2887163-81C1-4BCC-B2D3-58E38A175CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
+    <workbookView xWindow="1050" yWindow="720" windowWidth="22200" windowHeight="14535" activeTab="1" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1395,10 +1395,10 @@
   <dimension ref="A1:DI44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
+      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
